--- a/web_wibu_react/extract/hako_data.xlsx
+++ b/web_wibu_react/extract/hako_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AK30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,17 +623,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>8962</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nguyên tắc của một Triết gia, được viết bởi Kẻ Ngốc Vĩnh Cửu "Asley"</t>
+          <t>Seirei Tsukai no Blade Dance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://ln.hako.vn/truyen/8962-nguyen-tac-cua-mot-triet-gia-duoc-viet-boi-ke-ngoc-vinh-cuu-asley</t>
+          <t>https://ln.hako.vn/truyen/1-seirei-tsukai-no-blade-dance</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['Adventure', 'Action', 'Comedy', 'Fantasy', 'Magic', 'Romance', 'School Life', 'Super Power', 'Web Novel', 'Psychological', 'Drama', 'Mystery', 'Slice of Life', '']</t>
+          <t>['Action', 'Adventure', 'Comedy', 'Fantasy', 'Romance', 'Ecchi', 'Harem', 'School Life', 'Super Power', '']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -653,12 +653,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Not sure</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Not sure</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://i.docln.net/lightnovel/covers/s8962-8910e889-79a8-4332-b688-6462497a162b-m.jpg</t>
+          <t>https://i.docln.net/lightnovel/covers/s1-c4dd8ff5-552d-46ec-9945-529f9aa2d1b2-m.jpg</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Hifumi</t>
+          <t>Shimizu Yuu</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Kurihito Muto</t>
+          <t>Sakura Hanpen, Nimura Yuuji, Shimesada Kohada</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -688,100 +688,4611 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>Đã hoàn thành</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>2944</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1071757</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>345</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1695086</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2256</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>medassin</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/39</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Sonata no Koe</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/nhom-dich/3-sonata-no-koe</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AD2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>272</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Utsuro no Hako to Zero no Maria</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/truyen/10-utsuro-no-hako-to-zero-no-maria</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Truyện dịch</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['Drama', 'Mystery', 'Romance']</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>japanese</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://3.bp.blogspot.com/-hGKnPrypenQ/WO2vaWFMeCI/AAAAAAAAJxw/9NXW2PRideY/w215/series_10.jpg</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Mikage Eiji</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Tetsuo (415)</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>light novel</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Tạm ngưng</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>889</v>
+      </c>
+      <c r="P3" t="n">
+        <v>333710</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>97</v>
+      </c>
+      <c r="R3" t="n">
+        <v>176429</v>
+      </c>
+      <c r="S3" t="n">
+        <v>60</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Hakomari</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>EmbersGlow</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/1</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Solarius</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/nhom-dich/8-solarius</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yahari Ore no Seishun Love Come wa Machigatteiru</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/truyen/108-yahari-ore-no-seishun-love-come-wa-machigatteiru</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Truyện dịch</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['Comedy', 'Drama', 'School Life', 'Slice of Life', 'Romance']</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>japanese</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://4.bp.blogspot.com/-A0dOLNHLzh0/WO2vpMSXOCI/AAAAAAAAJ34/wd8BcI9CSQk/w215/series_108.jpg</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Wataru Watari</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Ponkan⑧</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>light novel</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>Đang tiến hành</t>
         </is>
       </c>
-      <c r="O2" t="n">
-        <v>318</v>
-      </c>
-      <c r="P2" t="n">
-        <v>22670</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="O4" t="n">
+        <v>540</v>
+      </c>
+      <c r="P4" t="n">
+        <v>348338</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>267496</v>
+      </c>
+      <c r="S4" t="n">
+        <v>43</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>OreGairu</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>EmbersGlow</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/1</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Sonata no Koe</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/nhom-dich/3-sonata-no-koe</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AD4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE4" t="n">
         <v>41</v>
       </c>
-      <c r="R2" t="n">
-        <v>27842</v>
-      </c>
-      <c r="S2" t="n">
-        <v>84</v>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>The Principle of a Philosopher by Eternal Fool "Asley"
-Yuukyuu no Gusha Asley no, Kenja no Susume
-悠久の愚者アズリーの、賢者のすゝめ
-悠久愚者阿兹利的贤者之道</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>78451</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Yến Hy</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>https://ln.hako.vn/thanh-vien/78451</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>539</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>NOT FOUND</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>https://ln.hako.vn/nhom-dich/539-</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>NOT FOUND</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>NOT FOUND</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>NOT FOUND</t>
-        </is>
-      </c>
-      <c r="AD2" t="n">
+      <c r="AF4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fate/Zero</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/truyen/11-fatezero</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Truyện dịch</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['Action', 'Fantasy', 'Supernatural', 'Drama']</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>japanese</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://3.bp.blogspot.com/-_XopZx9lUR4/WO2vafVT-KI/AAAAAAAAJx0/Q517v3HEEkE/w215/series_11.jpg</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Gen Urobuchi</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Takeuchi Takashi</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>light novel</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Đã hoàn thành</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>190</v>
+      </c>
+      <c r="P5" t="n">
+        <v>366178</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>16</v>
+      </c>
+      <c r="R5" t="n">
+        <v>111831</v>
+      </c>
+      <c r="S5" t="n">
+        <v>22</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Hako-chan</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/2</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Vnsharing</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/nhom-dich/9-vnsharing</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AD5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tabi ni Deyou, Horobiyuku Sekai no Hate Made</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/truyen/12-tabi-ni-deyou-horobiyuku-sekai-no-hate-made</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Truyện dịch</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['Adventure', 'Fantasy']</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>japanese</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://2.bp.blogspot.com/-dBM-k8l2XGk/WO2vatvnj9I/AAAAAAAAJx4/_xaOvpa49jE/w215/series_12.jpg</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Yorozuya Tadahito</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Houmitsu</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>light novel</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Đã hoàn thành</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>228</v>
+      </c>
+      <c r="P6" t="n">
+        <v>81387</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>41</v>
+      </c>
+      <c r="R6" t="n">
+        <v>43372</v>
+      </c>
+      <c r="S6" t="n">
+        <v>25</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Our Journey to the End of the Ceasing World</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>EmbersGlow</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/1</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>Solarius</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/nhom-dich/8-solarius</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AD6" t="n">
         <v>1</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bungaku Shoujo</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/truyen/14-bungaku-shoujo</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Truyện dịch</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>['Drama', 'Mystery', 'School Life', 'Romance']</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>japanese</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://4.bp.blogspot.com/-c3cBotWJCmg/WO2vayj5JlI/AAAAAAAAJyA/MnKrJm7ku_k/w215/series_14.jpg</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Nomura Mizuki</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Takeoka Miho</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>light novel</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Tạm ngưng</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>133</v>
+      </c>
+      <c r="P7" t="n">
+        <v>80003</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>7</v>
+      </c>
+      <c r="R7" t="n">
+        <v>146697</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Cô Gái Văn Chương</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>EmbersGlow</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/1</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>Sickos-Alliance</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/nhom-dich/12-sickos-alliance</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AD7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dantalian no Shoka</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/truyen/15-dantalian-no-shoka</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Truyện dịch</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>['Fantasy', 'Mystery', 'Action', 'Drama', 'Supernatural']</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>japanese</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://i.docln.net/lightnovel/covers/s15-bf265093-cb73-4b92-ad72-975d333e17d2-m.jpg</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Mikumo Gakuto</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>G-Yuusuke</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>light novel</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Tạm ngưng</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>120</v>
+      </c>
+      <c r="P8" t="n">
+        <v>59565</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R8" t="n">
+        <v>32318</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Thư viện của Dantalian</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>EmbersGlow</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/1</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>Sickos-Alliance</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/nhom-dich/12-sickos-alliance</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AD8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="n">
         <v>8</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Zero no Tsukaima</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/truyen/16-zero-no-tsukaima</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Truyện dịch</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>['Action', 'Adventure', 'Comedy', 'Fantasy', 'Harem', 'Romance']</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>japanese</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://3.bp.blogspot.com/-R95ey36a2PM/WO2vbBKqAJI/AAAAAAAAJyI/EOsFqFMvc8c/w215/series_16.jpg</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Yamaguchi Noboru</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Usatsuka Eiji</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>light novel</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Tạm ngưng</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>199</v>
+      </c>
+      <c r="P9" t="n">
+        <v>258349</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>91608</v>
+      </c>
+      <c r="S9" t="n">
+        <v>14</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Linh Thú của Zero</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>MuvLuvFan</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/42</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>Snail</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/nhom-dich/33-snail</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AD9" t="n">
         <v>5</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AE9" t="n">
+        <v>43</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>31</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>5</v>
       </c>
-      <c r="AH2" t="n">
-        <v>2021</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ2" t="n">
+      <c r="AK9" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Infinite Stratos</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/truyen/17-infinite-stratos</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Truyện dịch</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>['Action', 'Comedy', 'Harem', 'Mecha', 'School Life', 'Science Fiction', 'Romance', 'Ecchi', '']</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>japanese</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://3.bp.blogspot.com/-CC2aIJdjsso/WO2vboCq2dI/AAAAAAAAJyM/oYwf4hDWx3c/w215/series_17.jpg</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Yumizuru Izuru</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Okiura</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>light novel</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Đang tiến hành</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>458</v>
+      </c>
+      <c r="P10" t="n">
+        <v>381073</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>21</v>
+      </c>
+      <c r="R10" t="n">
+        <v>164147</v>
+      </c>
+      <c r="S10" t="n">
+        <v>30</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>EmbersGlow</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/1</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>Sonata no Koe</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/nhom-dich/3-sonata-no-koe</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AD10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hidan no Aria</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/truyen/18-hidan-no-aria</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Truyện dịch</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>['Action', 'Comedy', 'Harem', 'School Life', 'Supernatural', 'Romance', 'Drama', 'Ecchi', 'Super Power', '']</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>japanese</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://2.bp.blogspot.com/-8T9nWLu1FOI/WO2vbtxFmwI/AAAAAAAAJyQ/DMuu9Q3waF0/w215/series_18.jpg</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Akamatsu Chuugaku</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Kobuichi</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>light novel</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Tạm ngưng</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>344</v>
+      </c>
+      <c r="P11" t="n">
+        <v>495380</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>14</v>
+      </c>
+      <c r="R11" t="n">
+        <v>176703</v>
+      </c>
+      <c r="S11" t="n">
+        <v>30</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Aria the Scarlet Ammo</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>EmbersGlow</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/1</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>Sonata no Koe</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/nhom-dich/3-sonata-no-koe</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>11567</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Silverlord</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/11567</t>
+        </is>
+      </c>
+      <c r="AD11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>62</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Baka to Test to Shoukanjuu</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/truyen/20-baka-to-test-to-shoukanjuu</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Truyện dịch</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>['Comedy', 'School Life', 'Romance']</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>japanese</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>https://4.bp.blogspot.com/-cnPy89IPAns/WO2vbwYYIzI/AAAAAAAAJyY/7Yae1Bvzt0A/w215/series_20.jpg</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Inoue Kenji</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Haga Yui</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>light novel</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Đang tiến hành</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>385</v>
+      </c>
+      <c r="P12" t="n">
+        <v>936740</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>22</v>
+      </c>
+      <c r="R12" t="n">
+        <v>500408</v>
+      </c>
+      <c r="S12" t="n">
+        <v>34</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>バカとテストと召喚獣
+The idiots, The Tests and The Summoned Beasts
+Lũ Ngốc, Bài Thi Và Linh Thú Triệu Hồi</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>EmbersGlow</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/1</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>Sonata no Koe</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/nhom-dich/3-sonata-no-koe</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AD12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>164</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Waltraute-san no Konkatsu Jijou</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/truyen/21-waltraute-san-no-konkatsu-jijou</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Truyện dịch</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>['Comedy', 'Fantasy', 'Romance']</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>japanese</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://1.bp.blogspot.com/-BlAMHl9SQxk/WO2vcC9PHKI/AAAAAAAAJyc/K2JS_65C2tc/w215/series_21.jpg</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Kamachi Kazuma</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Nagiryo</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>light novel</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Đã hoàn thành</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>393</v>
+      </c>
+      <c r="P13" t="n">
+        <v>63028</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>21</v>
+      </c>
+      <c r="R13" t="n">
+        <v>74659</v>
+      </c>
+      <c r="S13" t="n">
+        <v>38</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Hoàn cảnh dẫn tới cuộc hôn nhân của Waltraute, ヴァルトラウテさんの婚活事情</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>EmbersGlow</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/1</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>Sonata no Koe</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/nhom-dich/3-sonata-no-koe</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AD13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Monogatari Series</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/truyen/23-monogatari-series</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Truyện dịch</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>['Comedy', 'Drama', 'Harem', 'School Life', 'Supernatural', 'Romance']</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>japanese</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://3.bp.blogspot.com/-2u6PF-0Vwbk/WO2vceFopnI/AAAAAAAAJyk/x2c5yeNMd8k/w215/series_23.jpg</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>NisiOisiN</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>VOFAN</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>light novel</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Tạm ngưng</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>348</v>
+      </c>
+      <c r="P14" t="n">
+        <v>675415</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>31</v>
+      </c>
+      <c r="R14" t="n">
+        <v>282713</v>
+      </c>
+      <c r="S14" t="n">
+        <v>66</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Yêu ma kì truyện</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>EmbersGlow</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/1</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>Hako Translation</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/nhom-dich/1-hako-translation</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AD14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>169</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Boku wa Tomodachi ga Sukunai</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/truyen/24-boku-wa-tomodachi-ga-sukunai</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Truyện dịch</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>['Comedy', 'Harem', 'School Life', 'Romance']</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>japanese</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://1.bp.blogspot.com/-rPBkBOxeXnc/WO2vcR7mfqI/AAAAAAAAJyo/q-l44vPnitA/w215/series_24.jpg</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Hirasaka Yomi</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Buriki</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>light novel</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Đang tiến hành</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>475</v>
+      </c>
+      <c r="P15" t="n">
+        <v>383212</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>24</v>
+      </c>
+      <c r="R15" t="n">
+        <v>220598</v>
+      </c>
+      <c r="S15" t="n">
+        <v>169</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Tôi không có nhiều bạn</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>EmbersGlow</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/1</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>Sonata no Koe</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/nhom-dich/3-sonata-no-koe</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AD15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Heavy Object</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/truyen/26-heavy-object</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Truyện dịch</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>['Action', 'Adventure', 'Comedy', 'Mecha', 'Mystery', 'Science Fiction', 'Drama', '']</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>japanese</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://2.bp.blogspot.com/-JsTaglFIl2A/WO2vcsXvB3I/AAAAAAAAJyw/EiNi7M-HoFg/w215/series_26.jpg</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Kamachi Kazuma</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Nagiryo</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>light novel</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Tạm ngưng</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>165</v>
+      </c>
+      <c r="P16" t="n">
+        <v>428597</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>11</v>
+      </c>
+      <c r="R16" t="n">
+        <v>64511</v>
+      </c>
+      <c r="S16" t="n">
+        <v>13</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>ヘヴィーオブジェクト</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>EmbersGlow</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/1</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>Sonata no Koe</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/nhom-dich/3-sonata-no-koe</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>11567
+11907</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Silverlord
+OmegaSky</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/11567
+https://ln.hako.vn/thanh-vien/11907</t>
+        </is>
+      </c>
+      <c r="AD16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>35</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Suzumiya Haruhi</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/truyen/27-suzumiya-haruhi</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Truyện dịch</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>['Comedy', 'Science Fiction', 'Romance']</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>japanese</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://1.bp.blogspot.com/-DBJqWjI5O6Q/WO2vcwHDwNI/AAAAAAAAJy0/MlWANXm8_Vw/w215/series_27.jpg</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Tanigawa Nagaru</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Itou Noizi</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>light novel</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Tạm ngưng</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>50</v>
+      </c>
+      <c r="P17" t="n">
+        <v>52286</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>30520</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>EmbersGlow</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/1</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>Solarius</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/nhom-dich/8-solarius</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AD17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Toaru Majutsu no Index</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/truyen/31-toaru-majutsu-no-index</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Truyện dịch</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>['Action', 'Comedy', 'Fantasy', 'Science Fiction', 'Romance']</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>japanese</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://3.bp.blogspot.com/-258GfyYPMPA/WO2vdY6V52I/AAAAAAAAJzE/5F9n5EIsq84/w215/series_31.jpg</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Kamachi Kazuma</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Haimura Kiyotaka</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>light novel</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Đang tiến hành</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>666</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1898365</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>35</v>
+      </c>
+      <c r="R18" t="n">
+        <v>807064</v>
+      </c>
+      <c r="S18" t="n">
+        <v>353</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>EmbersGlow</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/1</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>Sonata no Koe</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/nhom-dich/3-sonata-no-koe</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>3948</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>itachi</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/3948</t>
+        </is>
+      </c>
+      <c r="AD18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>257</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Phenomeno</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/truyen/34-phenomeno</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Truyện dịch</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>['Horror', 'Supernatural']</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>japanese</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://3.bp.blogspot.com/-7r_oDx-rERI/WO2vd4W8AyI/AAAAAAAAJzQ/L_lcBsaF57c/w215/series_34.jpg</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Ninomae Hajime</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Abe Yoshitoshi</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>light novel</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Đã hoàn thành</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>101</v>
+      </c>
+      <c r="P19" t="n">
+        <v>59559</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>11</v>
+      </c>
+      <c r="R19" t="n">
+        <v>39616</v>
+      </c>
+      <c r="S19" t="n">
+        <v>8</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>EmbersGlow</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/1</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>Hako Translation</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/nhom-dich/1-hako-translation</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AD19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Tsuki No Sango</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/truyen/36-tsuki-no-sango</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Truyện dịch</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>['Drama']</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>japanese</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://2.bp.blogspot.com/-2By0hVDU72A/WO2veDrlrVI/AAAAAAAAJzY/tJT1Ud_laoM/w215/series_36.jpg</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Kinoko Nasu</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Chihiro Aikura, Takashi Takeuchi</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>light novel</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Đã hoàn thành</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>122</v>
+      </c>
+      <c r="P20" t="n">
+        <v>15357</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>13</v>
+      </c>
+      <c r="R20" t="n">
+        <v>32603</v>
+      </c>
+      <c r="S20" t="n">
+        <v>13</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>EmbersGlow</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/1</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>Hako Translation</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/nhom-dich/1-hako-translation</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Durarara!!</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/truyen/43-durarara</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Truyện dịch</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>['Action', 'Drama', 'Supernatural', 'Romance', 'Comedy', 'Mystery', 'School Life', '']</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>japanese</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>https://3.bp.blogspot.com/-rYK4g8znePI/WO2vfL7XGgI/AAAAAAAAJz0/bGklE7BvKPM/w215/series_43.jpg</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Ryohgo Narita</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Suzuhito Yasuda</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>light novel</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Tạm ngưng</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>60</v>
+      </c>
+      <c r="P21" t="n">
+        <v>79947</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>33040</v>
+      </c>
+      <c r="S21" t="n">
         <v>3</v>
       </c>
-      <c r="AK2" t="n">
-        <v>2022</v>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>EmbersGlow</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/1</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>earl_panda</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/nhom-dich/13-earl-panda</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AD21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Date A Live</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/truyen/60-date-a-live</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Truyện dịch</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>['Comedy', 'Harem', 'School Life', 'Science Fiction', 'Romance', 'Action', 'Ecchi', 'Fantasy', '']</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>japanese</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>https://1.bp.blogspot.com/-RFGj8YBpLCs/WZxMi00AfbI/AAAAAAAApU4/uQ4ZfwlajtsQHyo5ALwV31ZtnApKDDB_ACHMYCw/w215/default.jpg</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Tachibana Koushi</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Tsunako</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>light novel</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Tạm ngưng</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>1272</v>
+      </c>
+      <c r="P22" t="n">
+        <v>706851</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>69</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1014664</v>
+      </c>
+      <c r="S22" t="n">
+        <v>165</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Heartless Zombie</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/25</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>Sonata no Koe</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/nhom-dich/3-sonata-no-koe</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>H.B.K</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/30</t>
+        </is>
+      </c>
+      <c r="AD22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>72</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Ore no Real to Netgame ga Love Comedy ni Shinshokusare Hajimete Yabai (1-5)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/truyen/64-ore-no-real-to-netgame-ga-love-comedy-ni-shinshokusare-hajimete-yabai</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Truyện dịch</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>['Adventure', 'Comedy', 'Harem', 'Romance']</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>japanese</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>https://1.bp.blogspot.com/-LNHbKsd0vgU/WO2vigXC8FI/AAAAAAAAJ1I/shqlws1gplY/w215/series_64.jpg</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Fujitani Aru</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Mishima Kurone</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>light novel</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Tạm ngưng</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>864</v>
+      </c>
+      <c r="P23" t="n">
+        <v>228257</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>48</v>
+      </c>
+      <c r="R23" t="n">
+        <v>202935</v>
+      </c>
+      <c r="S23" t="n">
+        <v>90</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>俺のリアルとネトゲがラブコメに侵蝕され始めてヤバイ
+Đời sống thực và game của tôi bắt đầu bị xâm lăng bởi sự lãng mạn hài hước mới chết</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>1640</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>OtonashiVinky</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/1640</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>V for Vinky ヾ(･v ･｡)ｼ</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/nhom-dich/183-v-for-vinky-w</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>EmbersGlow</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/1</t>
+        </is>
+      </c>
+      <c r="AD23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>47</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Kikou Shoujo wa Kizutsukanai</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/truyen/67-kikou-shoujo-wa-kizutsukanai</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Truyện dịch</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>['Action', 'Fantasy', 'School Life', 'Romance']</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>japanese</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>https://3.bp.blogspot.com/-lfDKZP6kqqw/WO2vi3IzLhI/AAAAAAAAJ1U/Qn1TsZcpDQ0/w215/series_67.jpg</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Reiji Kaitou</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Ruroo</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>light novel</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Tạm ngưng</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>173</v>
+      </c>
+      <c r="P24" t="n">
+        <v>99432</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>7</v>
+      </c>
+      <c r="R24" t="n">
+        <v>41685</v>
+      </c>
+      <c r="S24" t="n">
+        <v>29</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Unbreakable Machine Doll</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>hyddty</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/41</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>Hyddty</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/nhom-dich/30-hyddty</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AD24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Kamisu Reina</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/truyen/68-kamisu-reina</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Truyện dịch</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>['Drama', 'School Life']</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>japanese</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>https://4.bp.blogspot.com/-leC0fV3ISbI/WO2vjLBhnHI/AAAAAAAAJ1Y/tywe7j5AsT4/w215/series_68.jpg</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Mikage Eiji</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>light novel</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Tạm ngưng</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>47</v>
+      </c>
+      <c r="P25" t="n">
+        <v>13652</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>12550</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>EmbersGlow</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/1</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>Solarius</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/nhom-dich/8-solarius</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AD25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Shuuen no Shiori</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/truyen/74-shuuen-no-shiori</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Truyện dịch</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>['Horror', 'Supernatural']</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>japanese</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>https://3.bp.blogspot.com/-M-6vkrYx9lg/WO2vj2yyHvI/AAAAAAAAJ1w/PzcidroSpVM/w215/series_74.jpg</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Suzumu</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Komine</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>light novel</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Tạm ngưng</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>89</v>
+      </c>
+      <c r="P26" t="n">
+        <v>41038</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>37385</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Dấu trang của kết thúc</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>EmbersGlow</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/1</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>Sonata no Koe</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/nhom-dich/3-sonata-no-koe</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AD26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Hyouketsu Kyoukai no Eden</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/truyen/77-hyouketsu-kyoukai-no-eden</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Truyện dịch</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>['Action', 'Drama', 'Fantasy', 'Romance', 'Harem', 'Seinen', 'Supernatural', '']</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>japanese</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>https://2.bp.blogspot.com/-WEtoezRBZFc/WO2vkZDQIeI/AAAAAAAAJ18/oL2NwpoEYzU/w215/series_77.jpg</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Sazane Kei</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Kasukabe Akira</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>light novel</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Đang tiến hành</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>699</v>
+      </c>
+      <c r="P27" t="n">
+        <v>469313</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>48</v>
+      </c>
+      <c r="R27" t="n">
+        <v>258907</v>
+      </c>
+      <c r="S27" t="n">
+        <v>122</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>25295</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Crashcrane</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/25295</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>Hako Translation</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/nhom-dich/1-hako-translation</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AD27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>59</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sayonara Piano Sonata</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/truyen/8-sayonara-piano-sonata</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Truyện dịch</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>['Drama', 'Romance']</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>japanese</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>https://4.bp.blogspot.com/-BtMZ7dWSY0s/WO2vaGex_JI/AAAAAAAAJxo/Rgvg3AoYvx0/w215/series_8.jpg</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Sugii Hikaru</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Ueda Ryo</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>light novel</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Đã hoàn thành</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>338</v>
+      </c>
+      <c r="P28" t="n">
+        <v>359090</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>39</v>
+      </c>
+      <c r="R28" t="n">
+        <v>93608</v>
+      </c>
+      <c r="S28" t="n">
+        <v>66</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Bản Sô-nát Dương Cầm Li Biệt</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Hako-chan</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/2</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>Sonata no Koe</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/nhom-dich/3-sonata-no-koe</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>10772</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>smile_de_vn</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/10772</t>
+        </is>
+      </c>
+      <c r="AD28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>59</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Hyouka</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/truyen/80-hyouka</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Truyện dịch</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>['Drama', 'Mystery', 'School Life', 'Romance']</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>japanese</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>https://3.bp.blogspot.com/-28VzsLKLZ-k/WO2vk02yoHI/AAAAAAAAJ2I/s5xI6fp-6Sg/w215/series_80.jpg</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Yonezawa Honobu</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>web novel</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Đang tiến hành</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>1073</v>
+      </c>
+      <c r="P29" t="n">
+        <v>537813</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>114</v>
+      </c>
+      <c r="R29" t="n">
+        <v>398153</v>
+      </c>
+      <c r="S29" t="n">
+        <v>258</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>kysido22</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/13</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>Sonata no Koe</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/nhom-dich/3-sonata-no-koe</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>NOT FOUND</t>
+        </is>
+      </c>
+      <c r="AD29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>58</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Onii-chan Dakedo Ai Sae Areba Kankeinai yo ne</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/truyen/9-oniichan-dakedo-ai-sae-areba-kankeinai-yo-ne</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Truyện dịch</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>['Comedy', 'Harem', 'Incest', 'School Life', 'Romance']</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>japanese</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>https://2.bp.blogspot.com/-JhxMJBftUkU/WO2vaOYET5I/AAAAAAAAJxs/v_XBaNuQRHs/w215/series_9.jpg</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Suzuki Daisuke</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Uruu Gekka</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>light novel</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Tạm ngưng</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>203</v>
+      </c>
+      <c r="P30" t="n">
+        <v>74943</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>13</v>
+      </c>
+      <c r="R30" t="n">
+        <v>58339</v>
+      </c>
+      <c r="S30" t="n">
+        <v>28</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Cho dù đó là Onii-chan đi chăng nữa, chỉ cần có tình yêu thì sẽ không có vấn đề gì cả, đúng nhỉ?</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Nanaya</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/27</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>Tako &amp; team.</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/nhom-dich/10-tako-team</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Hako-chan</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>https://ln.hako.vn/thanh-vien/2</t>
+        </is>
+      </c>
+      <c r="AD30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>2016</v>
       </c>
     </row>
   </sheetData>
